--- a/CoursesData/Semester 1/VTP1.xlsx
+++ b/CoursesData/Semester 1/VTP1.xlsx
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nguyen Lien Hoa</t>
+  </si>
+  <si>
+    <t>dajsdsad</t>
+  </si>
+  <si>
+    <t>jeashdsulai</t>
+  </si>
+  <si>
+    <t>eshds</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +398,75 @@
       </c>
       <c r="G1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>20125333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7.5</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2">
+        <v>3.8</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20125121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>8.5</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>20125222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
